--- a/public/员工名单.xlsx
+++ b/public/员工名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lottery-master\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\lottery\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>id</t>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +96,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -368,91 +397,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="14.5">
       <c r="A2" s="2">
         <v>217782</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="14.5">
       <c r="A3" s="2">
         <v>266409</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="14.5">
       <c r="A4" s="2">
         <v>266807</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="14.5">
       <c r="A5" s="2">
         <v>276630</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="14.5">
       <c r="A6" s="2">
         <v>277997</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="14.5">
       <c r="A7" s="2">
         <v>293534</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="14.5">
       <c r="A8" s="2">
         <v>296186</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="14.5">
       <c r="A9" s="2">
         <v>209996</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="14.5">
       <c r="A10" s="2">
         <v>327676</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="14.5">
       <c r="A11" s="2">
         <v>89238</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="14.5">
       <c r="A12" s="2">
         <v>347576</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="14.5">
       <c r="A13" s="2">
         <v>357745</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="14.5">
       <c r="A14" s="2">
         <v>359237</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="14.5">
       <c r="A15" s="2">
         <v>360328</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="14.5">
       <c r="A16" s="2">
         <v>193676</v>
       </c>

--- a/public/员工名单.xlsx
+++ b/public/员工名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\lottery\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,36 +96,8 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,87 +371,87 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>217782</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>266409</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.5">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>266807</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>276630</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>277997</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.5">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>293534</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.5">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>296186</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.5">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>209996</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.5">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>327676</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.5">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>89238</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.5">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>347576</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.5">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>357745</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.5">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>359237</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.5">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>360328</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.5">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>193676</v>
       </c>
